--- a/group10.Code/analysis/Data Analysis Walmart.xlsx
+++ b/group10.Code/analysis/Data Analysis Walmart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
   <si>
     <t>Total</t>
   </si>
@@ -61,139 +61,142 @@
     <t>Rating vs Sentiment Matrix</t>
   </si>
   <si>
+    <t>🠗 Sentiment</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
     <t>🠖 Score</t>
   </si>
   <si>
-    <t>🠗 Sentiment</t>
-  </si>
-  <si>
-    <t>83      26      26      17      23</t>
-  </si>
-  <si>
-    <t>659     237     198     136     225</t>
-  </si>
-  <si>
-    <t>2578    1563    2214    2881    6023</t>
-  </si>
-  <si>
-    <t>587     744     2867    8326    23258</t>
-  </si>
-  <si>
-    <t>89      68      415     1752    7567</t>
-  </si>
-  <si>
-    <t>4       0       1       2       1</t>
-  </si>
-  <si>
-    <t>27      14      5       6       10</t>
-  </si>
-  <si>
-    <t>84      38      51      93      258</t>
-  </si>
-  <si>
-    <t>15      10      38      246     1329</t>
-  </si>
-  <si>
-    <t>4       2       9       121     889</t>
-  </si>
-  <si>
-    <t>1       0       0       1       0</t>
-  </si>
-  <si>
-    <t>14      4       3       1       4</t>
-  </si>
-  <si>
-    <t>60      15      25      37      122</t>
-  </si>
-  <si>
-    <t>10      9       14      85      459</t>
-  </si>
-  <si>
-    <t>3       0       1       25      195</t>
-  </si>
-  <si>
-    <t>0       0       1       0       0</t>
-  </si>
-  <si>
-    <t>10      5       2       2       5</t>
-  </si>
-  <si>
-    <t>30      16      15      34      157</t>
-  </si>
-  <si>
-    <t>5       5       12      113     820</t>
-  </si>
-  <si>
-    <t>0       0       3       15      176</t>
-  </si>
-  <si>
-    <t>4       0       1       1       0</t>
-  </si>
-  <si>
-    <t>10      2       5       8       13</t>
-  </si>
-  <si>
-    <t>25      9       20      49      225</t>
-  </si>
-  <si>
-    <t>9       6       28      123     1073</t>
-  </si>
-  <si>
-    <t>2       1       6       62      731</t>
-  </si>
-  <si>
-    <t>47      9       8       4       5</t>
-  </si>
-  <si>
-    <t>255     56      48      46      58</t>
-  </si>
-  <si>
-    <t>872     357     400     702     1415</t>
-  </si>
-  <si>
-    <t>123     86      196     1114    4663</t>
-  </si>
-  <si>
-    <t>24      10      33      252     1494</t>
-  </si>
-  <si>
-    <t>2       0       2       0       3</t>
-  </si>
-  <si>
-    <t>45      26      20      3       12</t>
-  </si>
-  <si>
-    <t>220     127     163     148     309</t>
-  </si>
-  <si>
-    <t>43      38      100     369     1576</t>
-  </si>
-  <si>
-    <t>7       2       20      89      571</t>
-  </si>
-  <si>
-    <t>25      17      13      9       14</t>
-  </si>
-  <si>
-    <t>298     130     115     70      123</t>
-  </si>
-  <si>
-    <t>1287    1001    1540    1818    3537</t>
-  </si>
-  <si>
-    <t>382     590     2479    6276    13338</t>
-  </si>
-  <si>
-    <t>49      53      343     1188    3511</t>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>83  659  2578  587  89</t>
+  </si>
+  <si>
+    <t>26  237  1563  744  68</t>
+  </si>
+  <si>
+    <t>26  198  2214  2867  415</t>
+  </si>
+  <si>
+    <t>17  136  2881  8326  1752</t>
+  </si>
+  <si>
+    <t>23  225  6023  23258  7567</t>
+  </si>
+  <si>
+    <t>4  27  84  15  4</t>
+  </si>
+  <si>
+    <t>0  14  38  10  2</t>
+  </si>
+  <si>
+    <t>1  5  51  38  9</t>
+  </si>
+  <si>
+    <t>2  6  93  246  121</t>
+  </si>
+  <si>
+    <t>1  10  258  1329  889</t>
+  </si>
+  <si>
+    <t>1  14  60  10  3</t>
+  </si>
+  <si>
+    <t>0  4  15  9  0</t>
+  </si>
+  <si>
+    <t>0  3  25  14  1</t>
+  </si>
+  <si>
+    <t>1  1  37  85  25</t>
+  </si>
+  <si>
+    <t>0  4  122  459  195</t>
+  </si>
+  <si>
+    <t>0  10  30  5  0</t>
+  </si>
+  <si>
+    <t>0  5  16  5  0</t>
+  </si>
+  <si>
+    <t>1  2  15  12  3</t>
+  </si>
+  <si>
+    <t>0  2  34  113  15</t>
+  </si>
+  <si>
+    <t>0  5  157  820  176</t>
+  </si>
+  <si>
+    <t>4  10  25  9  2</t>
+  </si>
+  <si>
+    <t>0  2  9  6  1</t>
+  </si>
+  <si>
+    <t>1  5  20  28  6</t>
+  </si>
+  <si>
+    <t>1  8  49  123  62</t>
+  </si>
+  <si>
+    <t>0  13  225  1073  731</t>
+  </si>
+  <si>
+    <t>47  255  872  123  24</t>
+  </si>
+  <si>
+    <t>9  56  357  86  10</t>
+  </si>
+  <si>
+    <t>8  48  400  196  33</t>
+  </si>
+  <si>
+    <t>4  46  702  1114  252</t>
+  </si>
+  <si>
+    <t>5  58  1415  4663  1494</t>
+  </si>
+  <si>
+    <t>2  45  220  43  7</t>
+  </si>
+  <si>
+    <t>0  26  127  38  2</t>
+  </si>
+  <si>
+    <t>2  20  163  100  20</t>
+  </si>
+  <si>
+    <t>0  3  148  369  89</t>
+  </si>
+  <si>
+    <t>3  12  309  1576  571</t>
+  </si>
+  <si>
+    <t>25  298  1287  382  49</t>
+  </si>
+  <si>
+    <t>17  130  1001  590  53</t>
+  </si>
+  <si>
+    <t>13  115  1540  2479  343</t>
+  </si>
+  <si>
+    <t>9  70  1818  6276  1188</t>
+  </si>
+  <si>
+    <t>14  123  3537  13338  3511</t>
   </si>
   <si>
     <t>Graphs</t>
   </si>
   <si>
     <t xml:space="preserve"> Walmart Data Analysis Graphs will be located in another excel sheet.</t>
-  </si>
-  <si>
-    <t>Sentiment</t>
   </si>
   <si>
     <t>Estimated Score</t>
@@ -308,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -329,13 +332,31 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FFAEAEAE"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -380,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -407,11 +428,12 @@
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -423,10 +445,10 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -439,6 +461,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -691,6 +719,30 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
@@ -1693,13 +1745,19 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30">
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>16</v>
+      <c r="B31" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>1.0</v>
@@ -1716,65 +1774,128 @@
       <c r="G31" s="2">
         <v>5.0</v>
       </c>
+      <c r="J31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="B32" s="2">
         <v>1.0</v>
       </c>
       <c r="C32" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K32, ""      "")"),83.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H32, ""      "")"),83.0)</f>
         <v>83</v>
       </c>
       <c r="D32" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),659.0)</f>
+        <v>659</v>
       </c>
       <c r="E32" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2578.0)</f>
+        <v>2578</v>
       </c>
       <c r="F32" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),587.0)</f>
+        <v>587</v>
       </c>
       <c r="G32" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
-        <v>23</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
+        <v>89</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f t="shared" ref="K32:O32" si="17">ROUNDUP((C32/$K5),4)*100&amp;"%"</f>
+        <v>2.08%</v>
+      </c>
+      <c r="L32" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>16.5%</v>
+      </c>
+      <c r="M32" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>64.52%</v>
+      </c>
+      <c r="N32" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>14.69%</v>
+      </c>
+      <c r="O32" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>2.23%</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="10"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="2">
         <v>2.0</v>
       </c>
       <c r="C33" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K33, ""      "")"),659.0)</f>
-        <v>659</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H33, ""      "")"),26.0)</f>
+        <v>26</v>
       </c>
       <c r="D33" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
         <v>237</v>
       </c>
       <c r="E33" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
-        <v>198</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1563.0)</f>
+        <v>1563</v>
       </c>
       <c r="F33" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),136.0)</f>
-        <v>136</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),744.0)</f>
+        <v>744</v>
       </c>
       <c r="G33" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
-        <v>225</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>19</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
+        <v>68</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K33" s="5" t="str">
+        <f t="shared" ref="K33:O33" si="18">ROUNDUP((C33/$K6),4)*100&amp;"%"</f>
+        <v>0.99%</v>
+      </c>
+      <c r="L33" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>8.99%</v>
+      </c>
+      <c r="M33" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>59.25%</v>
+      </c>
+      <c r="N33" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>28.21%</v>
+      </c>
+      <c r="O33" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>2.58%</v>
       </c>
     </row>
     <row r="34">
@@ -1783,27 +1904,51 @@
         <v>3.0</v>
       </c>
       <c r="C34" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K34, ""      "")"),2578.0)</f>
-        <v>2578</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H34, ""      "")"),26.0)</f>
+        <v>26</v>
       </c>
       <c r="D34" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1563.0)</f>
-        <v>1563</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
+        <v>198</v>
       </c>
       <c r="E34" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2214.0)</f>
         <v>2214</v>
       </c>
       <c r="F34" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2881.0)</f>
-        <v>2881</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2867.0)</f>
+        <v>2867</v>
       </c>
       <c r="G34" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6023.0)</f>
-        <v>6023</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="K34" s="5" t="str">
+        <f t="shared" ref="K34:O34" si="19">ROUNDUP((C34/$K7),4)*100&amp;"%"</f>
+        <v>0.46%</v>
+      </c>
+      <c r="L34" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>3.47%</v>
+      </c>
+      <c r="M34" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>38.71%</v>
+      </c>
+      <c r="N34" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>50.13%</v>
+      </c>
+      <c r="O34" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>7.26%</v>
       </c>
     </row>
     <row r="35">
@@ -1812,27 +1957,51 @@
         <v>4.0</v>
       </c>
       <c r="C35" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K35, ""      "")"),587.0)</f>
-        <v>587</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H35, ""      "")"),17.0)</f>
+        <v>17</v>
       </c>
       <c r="D35" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),744.0)</f>
-        <v>744</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),136.0)</f>
+        <v>136</v>
       </c>
       <c r="E35" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2867.0)</f>
-        <v>2867</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2881.0)</f>
+        <v>2881</v>
       </c>
       <c r="F35" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8326.0)</f>
         <v>8326</v>
       </c>
       <c r="G35" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23258.0)</f>
-        <v>23258</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>21</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1752.0)</f>
+        <v>1752</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K35" s="5" t="str">
+        <f t="shared" ref="K35:O35" si="20">ROUNDUP((C35/$K8),4)*100&amp;"%"</f>
+        <v>0.13%</v>
+      </c>
+      <c r="L35" s="5" t="str">
+        <f t="shared" si="20"/>
+        <v>1.04%</v>
+      </c>
+      <c r="M35" s="5" t="str">
+        <f t="shared" si="20"/>
+        <v>21.98%</v>
+      </c>
+      <c r="N35" s="5" t="str">
+        <f t="shared" si="20"/>
+        <v>63.5%</v>
+      </c>
+      <c r="O35" s="5" t="str">
+        <f t="shared" si="20"/>
+        <v>13.37%</v>
       </c>
     </row>
     <row r="36">
@@ -1841,40 +2010,70 @@
         <v>5.0</v>
       </c>
       <c r="C36" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K36, ""      "")"),89.0)</f>
-        <v>89</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H36, ""      "")"),23.0)</f>
+        <v>23</v>
       </c>
       <c r="D36" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
-        <v>68</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="E36" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6023.0)</f>
+        <v>6023</v>
       </c>
       <c r="F36" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1752.0)</f>
-        <v>1752</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23258.0)</f>
+        <v>23258</v>
       </c>
       <c r="G36" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7567.0)</f>
         <v>7567</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>22</v>
+      <c r="H36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K36" s="5" t="str">
+        <f t="shared" ref="K36:O36" si="21">ROUNDUP((C36/$K9),4)*100&amp;"%"</f>
+        <v>0.07%</v>
+      </c>
+      <c r="L36" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>0.61%</v>
+      </c>
+      <c r="M36" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>16.24%</v>
+      </c>
+      <c r="N36" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>62.7%</v>
+      </c>
+      <c r="O36" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>20.4%</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5"/>
     </row>
     <row r="38">
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>16</v>
+      <c r="B39" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C39" s="2">
         <v>1.0</v>
@@ -1891,65 +2090,128 @@
       <c r="G39" s="2">
         <v>5.0</v>
       </c>
+      <c r="J39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="B40" s="2">
         <v>1.0</v>
       </c>
       <c r="C40" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K40, ""      "")"),4.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H40, ""      "")"),4.0)</f>
         <v>4</v>
       </c>
       <c r="D40" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
+        <v>27</v>
       </c>
       <c r="E40" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
       </c>
       <c r="F40" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
+        <v>15</v>
       </c>
       <c r="G40" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>23</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
+        <v>4</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K40" s="5" t="str">
+        <f t="shared" ref="K40:O40" si="22">ROUNDUP((C40/$L5),4)*100&amp;"%"</f>
+        <v>2.99%</v>
+      </c>
+      <c r="L40" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>20.15%</v>
+      </c>
+      <c r="M40" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>62.69%</v>
+      </c>
+      <c r="N40" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>11.2%</v>
+      </c>
+      <c r="O40" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>2.99%</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="10"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="2">
         <v>2.0</v>
       </c>
       <c r="C41" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K41, ""      "")"),27.0)</f>
-        <v>27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H41, ""      "")"),0.0)</f>
+        <v>0</v>
       </c>
       <c r="D41" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
         <v>14</v>
       </c>
       <c r="E41" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="F41" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
-        <v>6</v>
-      </c>
-      <c r="G41" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
         <v>10</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>24</v>
+      <c r="G41" s="9">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K41" s="5" t="str">
+        <f t="shared" ref="K41:O41" si="23">ROUNDUP((C41/$L6),4)*100&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="L41" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>21.88%</v>
+      </c>
+      <c r="M41" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>59.38%</v>
+      </c>
+      <c r="N41" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>15.63%</v>
+      </c>
+      <c r="O41" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>3.13%</v>
       </c>
     </row>
     <row r="42">
@@ -1958,27 +2220,51 @@
         <v>3.0</v>
       </c>
       <c r="C42" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K42, ""      "")"),84.0)</f>
-        <v>84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H42, ""      "")"),1.0)</f>
+        <v>1</v>
       </c>
       <c r="D42" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
       </c>
       <c r="E42" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
         <v>51</v>
       </c>
       <c r="F42" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
-        <v>93</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="G42" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="K42" s="5" t="str">
+        <f t="shared" ref="K42:O42" si="24">ROUNDUP((C42/$L7),4)*100&amp;"%"</f>
+        <v>0.97%</v>
+      </c>
+      <c r="L42" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>4.81%</v>
+      </c>
+      <c r="M42" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>49.04%</v>
+      </c>
+      <c r="N42" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>36.54%</v>
+      </c>
+      <c r="O42" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>8.66%</v>
       </c>
     </row>
     <row r="43">
@@ -1987,27 +2273,51 @@
         <v>4.0</v>
       </c>
       <c r="C43" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K43, ""      "")"),15.0)</f>
-        <v>15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H43, ""      "")"),2.0)</f>
+        <v>2</v>
       </c>
       <c r="D43" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
-        <v>10</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
+        <v>6</v>
       </c>
       <c r="E43" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
+        <v>93</v>
       </c>
       <c r="F43" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),246.0)</f>
         <v>246</v>
       </c>
       <c r="G43" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1329.0)</f>
-        <v>1329</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K43" s="5" t="str">
+        <f t="shared" ref="K43:O43" si="25">ROUNDUP((C43/$L8),4)*100&amp;"%"</f>
+        <v>0.43%</v>
+      </c>
+      <c r="L43" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>1.29%</v>
+      </c>
+      <c r="M43" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>19.88%</v>
+      </c>
+      <c r="N43" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>52.57%</v>
+      </c>
+      <c r="O43" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>25.86%</v>
       </c>
     </row>
     <row r="44">
@@ -2016,40 +2326,70 @@
         <v>5.0</v>
       </c>
       <c r="C44" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K44, ""      "")"),4.0)</f>
-        <v>4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H44, ""      "")"),1.0)</f>
+        <v>1</v>
       </c>
       <c r="D44" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
       </c>
       <c r="E44" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
       </c>
       <c r="F44" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1329.0)</f>
+        <v>1329</v>
       </c>
       <c r="G44" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),889.0)</f>
         <v>889</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>27</v>
+      <c r="H44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K44" s="5" t="str">
+        <f t="shared" ref="K44:O44" si="26">ROUNDUP((C44/$L9),4)*100&amp;"%"</f>
+        <v>0.05%</v>
+      </c>
+      <c r="L44" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>0.41%</v>
+      </c>
+      <c r="M44" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>10.38%</v>
+      </c>
+      <c r="N44" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>53.44%</v>
+      </c>
+      <c r="O44" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>35.75%</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5"/>
     </row>
     <row r="46">
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>16</v>
+      <c r="B47" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C47" s="2">
         <v>1.0</v>
@@ -2066,65 +2406,128 @@
       <c r="G47" s="2">
         <v>5.0</v>
       </c>
+      <c r="J47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="B48" s="2">
         <v>1.0</v>
       </c>
       <c r="C48" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K48, ""      "")"),1.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H48, ""      "")"),1.0)</f>
         <v>1</v>
       </c>
       <c r="D48" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
+        <v>14</v>
       </c>
       <c r="E48" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
+        <v>60</v>
       </c>
       <c r="F48" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
       </c>
       <c r="G48" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K48" s="5" t="str">
+        <f t="shared" ref="K48:O48" si="27">ROUNDUP((C48/$M5),4)*100&amp;"%"</f>
+        <v>1.14%</v>
+      </c>
+      <c r="L48" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>15.91%</v>
+      </c>
+      <c r="M48" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>68.19%</v>
+      </c>
+      <c r="N48" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>11.37%</v>
+      </c>
+      <c r="O48" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>3.41%</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="10"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="2">
         <v>2.0</v>
       </c>
       <c r="C49" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K49, ""      "")"),14.0)</f>
-        <v>14</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H49, ""      "")"),0.0)</f>
+        <v>0</v>
       </c>
       <c r="D49" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
       <c r="E49" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
+        <v>15</v>
       </c>
       <c r="F49" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
       </c>
       <c r="G49" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
-        <v>4</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K49" s="5" t="str">
+        <f t="shared" ref="K49:O49" si="28">ROUNDUP((C49/$M6),4)*100&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="L49" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>14.29%</v>
+      </c>
+      <c r="M49" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>53.58%</v>
+      </c>
+      <c r="N49" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>32.15%</v>
+      </c>
+      <c r="O49" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>0%</v>
       </c>
     </row>
     <row r="50">
@@ -2133,27 +2536,51 @@
         <v>3.0</v>
       </c>
       <c r="C50" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K50, ""      "")"),60.0)</f>
-        <v>60</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H50, ""      "")"),0.0)</f>
+        <v>0</v>
       </c>
       <c r="D50" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
-        <v>15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="E50" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
         <v>25</v>
       </c>
       <c r="F50" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
+        <v>14</v>
       </c>
       <c r="G50" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
-        <v>122</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="K50" s="5" t="str">
+        <f t="shared" ref="K50:O50" si="29">ROUNDUP((C50/$M7),4)*100&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="L50" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>6.98%</v>
+      </c>
+      <c r="M50" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>58.14%</v>
+      </c>
+      <c r="N50" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>32.56%</v>
+      </c>
+      <c r="O50" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>2.33%</v>
       </c>
     </row>
     <row r="51">
@@ -2162,27 +2589,51 @@
         <v>4.0</v>
       </c>
       <c r="C51" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K51, ""      "")"),10.0)</f>
-        <v>10</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H51, ""      "")"),1.0)</f>
+        <v>1</v>
       </c>
       <c r="D51" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="E51" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
-        <v>14</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
       </c>
       <c r="F51" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
         <v>85</v>
       </c>
       <c r="G51" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
-        <v>459</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>31</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
+        <v>25</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K51" s="5" t="str">
+        <f t="shared" ref="K51:O51" si="30">ROUNDUP((C51/$M8),4)*100&amp;"%"</f>
+        <v>0.68%</v>
+      </c>
+      <c r="L51" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>0.68%</v>
+      </c>
+      <c r="M51" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>24.84%</v>
+      </c>
+      <c r="N51" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>57.05%</v>
+      </c>
+      <c r="O51" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>16.78%</v>
       </c>
     </row>
     <row r="52">
@@ -2191,40 +2642,70 @@
         <v>5.0</v>
       </c>
       <c r="C52" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K52, ""      "")"),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H52, ""      "")"),0.0)</f>
+        <v>0</v>
       </c>
       <c r="D52" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
+        <v>4</v>
       </c>
       <c r="E52" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
+        <v>122</v>
       </c>
       <c r="F52" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
-        <v>25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
+        <v>459</v>
       </c>
       <c r="G52" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),195.0)</f>
         <v>195</v>
       </c>
-      <c r="K52" s="4" t="s">
-        <v>32</v>
+      <c r="H52" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K52" s="5" t="str">
+        <f t="shared" ref="K52:O52" si="31">ROUNDUP((C52/$M9),4)*100&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="L52" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>0.52%</v>
+      </c>
+      <c r="M52" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>15.65%</v>
+      </c>
+      <c r="N52" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>58.85%</v>
+      </c>
+      <c r="O52" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>25%</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5"/>
     </row>
     <row r="54">
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>16</v>
+      <c r="B55" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C55" s="2">
         <v>1.0</v>
@@ -2241,65 +2722,128 @@
       <c r="G55" s="2">
         <v>5.0</v>
       </c>
+      <c r="J55" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="N55" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="B56" s="2">
         <v>1.0</v>
       </c>
       <c r="C56" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K56, ""      "")"),0.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H56, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
       <c r="D56" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
       </c>
       <c r="E56" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="F56" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
       </c>
       <c r="G56" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="K56" s="4" t="s">
-        <v>33</v>
+      <c r="H56" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="11"/>
+      <c r="J56" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K56" s="5" t="str">
+        <f t="shared" ref="K56:O56" si="32">ROUNDUP((C56/$N5),4)*100&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="L56" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>22.23%</v>
+      </c>
+      <c r="M56" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>66.67%</v>
+      </c>
+      <c r="N56" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>11.12%</v>
+      </c>
+      <c r="O56" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>0%</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="10"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="2">
         <v>2.0</v>
       </c>
       <c r="C57" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K57, ""      "")"),10.0)</f>
-        <v>10</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H57, ""      "")"),0.0)</f>
+        <v>0</v>
       </c>
       <c r="D57" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
       <c r="E57" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="F57" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="G57" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="K57" s="4" t="s">
-        <v>34</v>
+      <c r="G57" s="9">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K57" s="5" t="str">
+        <f t="shared" ref="K57:O57" si="33">ROUNDUP((C57/$N6),4)*100&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="L57" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>19.24%</v>
+      </c>
+      <c r="M57" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>61.54%</v>
+      </c>
+      <c r="N57" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>19.24%</v>
+      </c>
+      <c r="O57" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>0%</v>
       </c>
     </row>
     <row r="58">
@@ -2308,27 +2852,51 @@
         <v>3.0</v>
       </c>
       <c r="C58" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K58, ""      "")"),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H58, ""      "")"),1.0)</f>
+        <v>1</v>
       </c>
       <c r="D58" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="E58" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
         <v>15</v>
       </c>
       <c r="F58" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
       </c>
       <c r="G58" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
-        <v>157</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" s="11"/>
+      <c r="J58" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="K58" s="5" t="str">
+        <f t="shared" ref="K58:O58" si="34">ROUNDUP((C58/$N7),4)*100&amp;"%"</f>
+        <v>3.04%</v>
+      </c>
+      <c r="L58" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>6.07%</v>
+      </c>
+      <c r="M58" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>45.46%</v>
+      </c>
+      <c r="N58" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>36.37%</v>
+      </c>
+      <c r="O58" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>9.1%</v>
       </c>
     </row>
     <row r="59">
@@ -2337,27 +2905,51 @@
         <v>4.0</v>
       </c>
       <c r="C59" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K59, ""      "")"),5.0)</f>
-        <v>5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H59, ""      "")"),0.0)</f>
+        <v>0</v>
       </c>
       <c r="D59" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="E59" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
-        <v>12</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="F59" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
         <v>113</v>
       </c>
       <c r="G59" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),820.0)</f>
-        <v>820</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
+        <v>15</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" s="11"/>
+      <c r="J59" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K59" s="5" t="str">
+        <f t="shared" ref="K59:O59" si="35">ROUNDUP((C59/$N8),4)*100&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="L59" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>1.22%</v>
+      </c>
+      <c r="M59" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>20.74%</v>
+      </c>
+      <c r="N59" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>68.91%</v>
+      </c>
+      <c r="O59" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>9.15%</v>
       </c>
     </row>
     <row r="60">
@@ -2366,40 +2958,70 @@
         <v>5.0</v>
       </c>
       <c r="C60" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K60, ""      "")"),0.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H60, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
       <c r="D60" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
       </c>
       <c r="E60" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
+        <v>157</v>
       </c>
       <c r="F60" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
-        <v>15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),820.0)</f>
+        <v>820</v>
       </c>
       <c r="G60" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
         <v>176</v>
       </c>
-      <c r="K60" s="4" t="s">
-        <v>37</v>
+      <c r="H60" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60" s="11"/>
+      <c r="J60" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K60" s="5" t="str">
+        <f t="shared" ref="K60:O60" si="36">ROUNDUP((C60/$N9),4)*100&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="L60" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>0.44%</v>
+      </c>
+      <c r="M60" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>13.56%</v>
+      </c>
+      <c r="N60" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>70.82%</v>
+      </c>
+      <c r="O60" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>15.2%</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5"/>
     </row>
     <row r="62">
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="s">
-        <v>16</v>
+      <c r="B63" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C63" s="2">
         <v>1.0</v>
@@ -2416,65 +3038,128 @@
       <c r="G63" s="2">
         <v>5.0</v>
       </c>
+      <c r="J63" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="M63" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="N63" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="B64" s="2">
         <v>1.0</v>
       </c>
       <c r="C64" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K64, ""      "")"),4.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H64, ""      "")"),4.0)</f>
         <v>4</v>
       </c>
       <c r="D64" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
       </c>
       <c r="E64" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
+        <v>25</v>
       </c>
       <c r="F64" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
       </c>
       <c r="G64" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K64" s="5" t="str">
+        <f t="shared" ref="K64:O64" si="37">ROUNDUP((C64/$O5),4)*100&amp;"%"</f>
+        <v>8%</v>
+      </c>
+      <c r="L64" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>20%</v>
+      </c>
+      <c r="M64" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>50%</v>
+      </c>
+      <c r="N64" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>18%</v>
+      </c>
+      <c r="O64" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>4%</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="10"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="2">
         <v>2.0</v>
       </c>
       <c r="C65" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K65, ""      "")"),10.0)</f>
-        <v>10</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H65, ""      "")"),0.0)</f>
+        <v>0</v>
       </c>
       <c r="D65" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
       <c r="E65" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
       </c>
       <c r="F65" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
+        <v>6</v>
       </c>
       <c r="G65" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" s="11"/>
+      <c r="J65" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K65" s="5" t="str">
+        <f t="shared" ref="K65:O65" si="38">ROUNDUP((C65/$O6),4)*100&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="L65" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>11.12%</v>
+      </c>
+      <c r="M65" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>50%</v>
+      </c>
+      <c r="N65" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>33.34%</v>
+      </c>
+      <c r="O65" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>5.56%</v>
       </c>
     </row>
     <row r="66">
@@ -2483,27 +3168,51 @@
         <v>3.0</v>
       </c>
       <c r="C66" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K66, ""      "")"),25.0)</f>
-        <v>25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H66, ""      "")"),1.0)</f>
+        <v>1</v>
       </c>
       <c r="D66" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
       </c>
       <c r="E66" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
         <v>20</v>
       </c>
       <c r="F66" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
       <c r="G66" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
-        <v>225</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
+        <v>6</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66" s="11"/>
+      <c r="J66" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="K66" s="5" t="str">
+        <f t="shared" ref="K66:O66" si="39">ROUNDUP((C66/$O7),4)*100&amp;"%"</f>
+        <v>1.67%</v>
+      </c>
+      <c r="L66" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>8.34%</v>
+      </c>
+      <c r="M66" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>33.34%</v>
+      </c>
+      <c r="N66" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>46.67%</v>
+      </c>
+      <c r="O66" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>10%</v>
       </c>
     </row>
     <row r="67">
@@ -2512,27 +3221,51 @@
         <v>4.0</v>
       </c>
       <c r="C67" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K67, ""      "")"),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H67, ""      "")"),1.0)</f>
+        <v>1</v>
       </c>
       <c r="D67" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
-        <v>6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
       </c>
       <c r="E67" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
       </c>
       <c r="F67" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),123.0)</f>
         <v>123</v>
       </c>
       <c r="G67" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1073.0)</f>
-        <v>1073</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>41</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
+        <v>62</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I67" s="11"/>
+      <c r="J67" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K67" s="5" t="str">
+        <f t="shared" ref="K67:O67" si="40">ROUNDUP((C67/$O8),4)*100&amp;"%"</f>
+        <v>0.42%</v>
+      </c>
+      <c r="L67" s="5" t="str">
+        <f t="shared" si="40"/>
+        <v>3.3%</v>
+      </c>
+      <c r="M67" s="5" t="str">
+        <f t="shared" si="40"/>
+        <v>20.17%</v>
+      </c>
+      <c r="N67" s="5" t="str">
+        <f t="shared" si="40"/>
+        <v>50.62%</v>
+      </c>
+      <c r="O67" s="5" t="str">
+        <f t="shared" si="40"/>
+        <v>25.52%</v>
       </c>
     </row>
     <row r="68">
@@ -2541,40 +3274,70 @@
         <v>5.0</v>
       </c>
       <c r="C68" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K68, ""      "")"),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H68, ""      "")"),0.0)</f>
+        <v>0</v>
       </c>
       <c r="D68" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
       </c>
       <c r="E68" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
-        <v>6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="F68" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
-        <v>62</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1073.0)</f>
+        <v>1073</v>
       </c>
       <c r="G68" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),731.0)</f>
         <v>731</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>42</v>
+      <c r="H68" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68" s="11"/>
+      <c r="J68" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K68" s="5" t="str">
+        <f t="shared" ref="K68:O68" si="41">ROUNDUP((C68/$O9),4)*100&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="L68" s="5" t="str">
+        <f t="shared" si="41"/>
+        <v>0.64%</v>
+      </c>
+      <c r="M68" s="5" t="str">
+        <f t="shared" si="41"/>
+        <v>11.02%</v>
+      </c>
+      <c r="N68" s="5" t="str">
+        <f t="shared" si="41"/>
+        <v>52.55%</v>
+      </c>
+      <c r="O68" s="5" t="str">
+        <f t="shared" si="41"/>
+        <v>35.8%</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5"/>
     </row>
     <row r="70">
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C70" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>16</v>
+      <c r="B71" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C71" s="2">
         <v>1.0</v>
@@ -2591,65 +3354,128 @@
       <c r="G71" s="2">
         <v>5.0</v>
       </c>
+      <c r="J71" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="M71" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="N71" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O71" s="2">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="B72" s="2">
         <v>1.0</v>
       </c>
       <c r="C72" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K72, ""      "")"),47.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H72, ""      "")"),47.0)</f>
         <v>47</v>
       </c>
       <c r="D72" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
+        <v>255</v>
       </c>
       <c r="E72" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),872.0)</f>
+        <v>872</v>
       </c>
       <c r="F72" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
-        <v>4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),123.0)</f>
+        <v>123</v>
       </c>
       <c r="G72" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>43</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I72" s="11"/>
+      <c r="J72" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K72" s="5" t="str">
+        <f t="shared" ref="K72:O72" si="42">ROUNDUP((C72/$P5),4)*100&amp;"%"</f>
+        <v>3.56%</v>
+      </c>
+      <c r="L72" s="5" t="str">
+        <f t="shared" si="42"/>
+        <v>19.31%</v>
+      </c>
+      <c r="M72" s="5" t="str">
+        <f t="shared" si="42"/>
+        <v>66.02%</v>
+      </c>
+      <c r="N72" s="5" t="str">
+        <f t="shared" si="42"/>
+        <v>9.32%</v>
+      </c>
+      <c r="O72" s="5" t="str">
+        <f t="shared" si="42"/>
+        <v>1.82%</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="10"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="2">
         <v>2.0</v>
       </c>
       <c r="C73" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K73, ""      "")"),255.0)</f>
-        <v>255</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H73, ""      "")"),9.0)</f>
+        <v>9</v>
       </c>
       <c r="D73" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
         <v>56</v>
       </c>
       <c r="E73" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357.0)</f>
+        <v>357</v>
       </c>
       <c r="F73" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),86.0)</f>
+        <v>86</v>
+      </c>
+      <c r="G73" s="9">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
+      </c>
+      <c r="H73" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G73" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>44</v>
+      <c r="I73" s="11"/>
+      <c r="J73" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K73" s="5" t="str">
+        <f t="shared" ref="K73:O73" si="43">ROUNDUP((C73/$P6),4)*100&amp;"%"</f>
+        <v>1.74%</v>
+      </c>
+      <c r="L73" s="5" t="str">
+        <f t="shared" si="43"/>
+        <v>10.82%</v>
+      </c>
+      <c r="M73" s="5" t="str">
+        <f t="shared" si="43"/>
+        <v>68.92%</v>
+      </c>
+      <c r="N73" s="5" t="str">
+        <f t="shared" si="43"/>
+        <v>16.61%</v>
+      </c>
+      <c r="O73" s="5" t="str">
+        <f t="shared" si="43"/>
+        <v>1.94%</v>
       </c>
     </row>
     <row r="74">
@@ -2658,27 +3484,51 @@
         <v>3.0</v>
       </c>
       <c r="C74" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K74, ""      "")"),872.0)</f>
-        <v>872</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H74, ""      "")"),8.0)</f>
+        <v>8</v>
       </c>
       <c r="D74" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357.0)</f>
-        <v>357</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
       <c r="E74" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
         <v>400</v>
       </c>
       <c r="F74" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),702.0)</f>
-        <v>702</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
+        <v>196</v>
       </c>
       <c r="G74" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1415.0)</f>
-        <v>1415</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" s="11"/>
+      <c r="J74" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="K74" s="5" t="str">
+        <f t="shared" ref="K74:O74" si="44">ROUNDUP((C74/$P7),4)*100&amp;"%"</f>
+        <v>1.17%</v>
+      </c>
+      <c r="L74" s="5" t="str">
+        <f t="shared" si="44"/>
+        <v>7.01%</v>
+      </c>
+      <c r="M74" s="5" t="str">
+        <f t="shared" si="44"/>
+        <v>58.4%</v>
+      </c>
+      <c r="N74" s="5" t="str">
+        <f t="shared" si="44"/>
+        <v>28.62%</v>
+      </c>
+      <c r="O74" s="5" t="str">
+        <f t="shared" si="44"/>
+        <v>4.82%</v>
       </c>
     </row>
     <row r="75">
@@ -2687,27 +3537,51 @@
         <v>4.0</v>
       </c>
       <c r="C75" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K75, ""      "")"),123.0)</f>
-        <v>123</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H75, ""      "")"),4.0)</f>
+        <v>4</v>
       </c>
       <c r="D75" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),86.0)</f>
-        <v>86</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
       </c>
       <c r="E75" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
-        <v>196</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),702.0)</f>
+        <v>702</v>
       </c>
       <c r="F75" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1114.0)</f>
         <v>1114</v>
       </c>
       <c r="G75" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4663.0)</f>
-        <v>4663</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.0)</f>
+        <v>252</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I75" s="11"/>
+      <c r="J75" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K75" s="5" t="str">
+        <f t="shared" ref="K75:O75" si="45">ROUNDUP((C75/$P8),4)*100&amp;"%"</f>
+        <v>0.19%</v>
+      </c>
+      <c r="L75" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>2.18%</v>
+      </c>
+      <c r="M75" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>33.15%</v>
+      </c>
+      <c r="N75" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>52.6%</v>
+      </c>
+      <c r="O75" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>11.9%</v>
       </c>
     </row>
     <row r="76">
@@ -2716,40 +3590,70 @@
         <v>5.0</v>
       </c>
       <c r="C76" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K76, ""      "")"),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H76, ""      "")"),5.0)</f>
+        <v>5</v>
       </c>
       <c r="D76" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
-        <v>10</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
+        <v>58</v>
       </c>
       <c r="E76" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
-        <v>33</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1415.0)</f>
+        <v>1415</v>
       </c>
       <c r="F76" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.0)</f>
-        <v>252</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4663.0)</f>
+        <v>4663</v>
       </c>
       <c r="G76" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1494.0)</f>
         <v>1494</v>
       </c>
-      <c r="K76" s="4" t="s">
-        <v>47</v>
+      <c r="H76" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I76" s="11"/>
+      <c r="J76" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K76" s="5" t="str">
+        <f t="shared" ref="K76:O76" si="46">ROUNDUP((C76/$P9),4)*100&amp;"%"</f>
+        <v>0.07%</v>
+      </c>
+      <c r="L76" s="5" t="str">
+        <f t="shared" si="46"/>
+        <v>0.76%</v>
+      </c>
+      <c r="M76" s="5" t="str">
+        <f t="shared" si="46"/>
+        <v>18.54%</v>
+      </c>
+      <c r="N76" s="5" t="str">
+        <f t="shared" si="46"/>
+        <v>61.08%</v>
+      </c>
+      <c r="O76" s="5" t="str">
+        <f t="shared" si="46"/>
+        <v>19.57%</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5"/>
     </row>
     <row r="78">
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C78" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="8" t="s">
-        <v>16</v>
+      <c r="B79" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C79" s="2">
         <v>1.0</v>
@@ -2766,65 +3670,128 @@
       <c r="G79" s="2">
         <v>5.0</v>
       </c>
+      <c r="J79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="M79" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="N79" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O79" s="2">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="B80" s="2">
         <v>1.0</v>
       </c>
       <c r="C80" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K80, ""      "")"),2.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H80, ""      "")"),2.0)</f>
         <v>2</v>
       </c>
       <c r="D80" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
+        <v>45</v>
       </c>
       <c r="E80" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),220.0)</f>
+        <v>220</v>
       </c>
       <c r="F80" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
+        <v>43</v>
       </c>
       <c r="G80" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
+        <v>7</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I80" s="11"/>
+      <c r="J80" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K80" s="5" t="str">
+        <f t="shared" ref="K80:O80" si="47">ROUNDUP((C80/$Q5),4)*100&amp;"%"</f>
+        <v>0.64%</v>
+      </c>
+      <c r="L80" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v>14.2%</v>
+      </c>
+      <c r="M80" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v>69.41%</v>
+      </c>
+      <c r="N80" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v>13.57%</v>
+      </c>
+      <c r="O80" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v>2.21%</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="10"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="2">
         <v>2.0</v>
       </c>
       <c r="C81" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K81, ""      "")"),45.0)</f>
-        <v>45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H81, ""      "")"),0.0)</f>
+        <v>0</v>
       </c>
       <c r="D81" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
         <v>26</v>
       </c>
       <c r="E81" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
+        <v>127</v>
       </c>
       <c r="F81" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="G81" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
-        <v>12</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I81" s="11"/>
+      <c r="J81" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K81" s="5" t="str">
+        <f t="shared" ref="K81:O81" si="48">ROUNDUP((C81/$Q6),4)*100&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="L81" s="5" t="str">
+        <f t="shared" si="48"/>
+        <v>13.48%</v>
+      </c>
+      <c r="M81" s="5" t="str">
+        <f t="shared" si="48"/>
+        <v>65.81%</v>
+      </c>
+      <c r="N81" s="5" t="str">
+        <f t="shared" si="48"/>
+        <v>19.69%</v>
+      </c>
+      <c r="O81" s="5" t="str">
+        <f t="shared" si="48"/>
+        <v>1.04%</v>
       </c>
     </row>
     <row r="82">
@@ -2833,27 +3800,51 @@
         <v>3.0</v>
       </c>
       <c r="C82" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K82, ""      "")"),220.0)</f>
-        <v>220</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H82, ""      "")"),2.0)</f>
+        <v>2</v>
       </c>
       <c r="D82" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
-        <v>127</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
       </c>
       <c r="E82" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
         <v>163</v>
       </c>
       <c r="F82" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
-        <v>148</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
+        <v>100</v>
       </c>
       <c r="G82" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
-        <v>309</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I82" s="11"/>
+      <c r="J82" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="K82" s="5" t="str">
+        <f t="shared" ref="K82:O82" si="49">ROUNDUP((C82/$Q7),4)*100&amp;"%"</f>
+        <v>0.66%</v>
+      </c>
+      <c r="L82" s="5" t="str">
+        <f t="shared" si="49"/>
+        <v>6.56%</v>
+      </c>
+      <c r="M82" s="5" t="str">
+        <f t="shared" si="49"/>
+        <v>53.45%</v>
+      </c>
+      <c r="N82" s="5" t="str">
+        <f t="shared" si="49"/>
+        <v>32.79%</v>
+      </c>
+      <c r="O82" s="5" t="str">
+        <f t="shared" si="49"/>
+        <v>6.56%</v>
       </c>
     </row>
     <row r="83">
@@ -2862,27 +3853,51 @@
         <v>4.0</v>
       </c>
       <c r="C83" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K83, ""      "")"),43.0)</f>
-        <v>43</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H83, ""      "")"),0.0)</f>
+        <v>0</v>
       </c>
       <c r="D83" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="E83" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
-        <v>100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
       </c>
       <c r="F83" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
         <v>369</v>
       </c>
       <c r="G83" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1576.0)</f>
-        <v>1576</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>51</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
+        <v>89</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I83" s="11"/>
+      <c r="J83" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K83" s="5" t="str">
+        <f t="shared" ref="K83:O83" si="50">ROUNDUP((C83/$Q8),4)*100&amp;"%"</f>
+        <v>0%</v>
+      </c>
+      <c r="L83" s="5" t="str">
+        <f t="shared" si="50"/>
+        <v>0.5%</v>
+      </c>
+      <c r="M83" s="5" t="str">
+        <f t="shared" si="50"/>
+        <v>24.31%</v>
+      </c>
+      <c r="N83" s="5" t="str">
+        <f t="shared" si="50"/>
+        <v>60.6%</v>
+      </c>
+      <c r="O83" s="5" t="str">
+        <f t="shared" si="50"/>
+        <v>14.62%</v>
       </c>
     </row>
     <row r="84">
@@ -2891,40 +3906,70 @@
         <v>5.0</v>
       </c>
       <c r="C84" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K84, ""      "")"),7.0)</f>
-        <v>7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H84, ""      "")"),3.0)</f>
+        <v>3</v>
       </c>
       <c r="D84" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
       </c>
       <c r="E84" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
+        <v>309</v>
       </c>
       <c r="F84" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
-        <v>89</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1576.0)</f>
+        <v>1576</v>
       </c>
       <c r="G84" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),571.0)</f>
         <v>571</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>52</v>
+      <c r="H84" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I84" s="11"/>
+      <c r="J84" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K84" s="5" t="str">
+        <f t="shared" ref="K84:O84" si="51">ROUNDUP((C84/$Q9),4)*100&amp;"%"</f>
+        <v>0.13%</v>
+      </c>
+      <c r="L84" s="5" t="str">
+        <f t="shared" si="51"/>
+        <v>0.49%</v>
+      </c>
+      <c r="M84" s="5" t="str">
+        <f t="shared" si="51"/>
+        <v>12.51%</v>
+      </c>
+      <c r="N84" s="5" t="str">
+        <f t="shared" si="51"/>
+        <v>63.78%</v>
+      </c>
+      <c r="O84" s="5" t="str">
+        <f t="shared" si="51"/>
+        <v>23.11%</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5"/>
     </row>
     <row r="86">
-      <c r="C86" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C86" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="8" t="s">
-        <v>16</v>
+      <c r="B87" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C87" s="2">
         <v>1.0</v>
@@ -2941,65 +3986,128 @@
       <c r="G87" s="2">
         <v>5.0</v>
       </c>
+      <c r="J87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="N87" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O87" s="2">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="B88" s="2">
         <v>1.0</v>
       </c>
       <c r="C88" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K88, ""      "")"),25.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H88, ""      "")"),25.0)</f>
         <v>25</v>
       </c>
       <c r="D88" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.0)</f>
+        <v>298</v>
       </c>
       <c r="E88" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1287.0)</f>
+        <v>1287</v>
       </c>
       <c r="F88" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),382.0)</f>
+        <v>382</v>
       </c>
       <c r="G88" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
-        <v>14</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>53</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I88" s="11"/>
+      <c r="J88" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K88" s="5" t="str">
+        <f t="shared" ref="K88:O88" si="52">ROUNDUP((C88/$R5),4)*100&amp;"%"</f>
+        <v>1.23%</v>
+      </c>
+      <c r="L88" s="5" t="str">
+        <f t="shared" si="52"/>
+        <v>14.61%</v>
+      </c>
+      <c r="M88" s="5" t="str">
+        <f t="shared" si="52"/>
+        <v>63.06%</v>
+      </c>
+      <c r="N88" s="5" t="str">
+        <f t="shared" si="52"/>
+        <v>18.72%</v>
+      </c>
+      <c r="O88" s="5" t="str">
+        <f t="shared" si="52"/>
+        <v>2.41%</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="10"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="2">
         <v>2.0</v>
       </c>
       <c r="C89" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K89, ""      "")"),298.0)</f>
-        <v>298</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H89, ""      "")"),17.0)</f>
+        <v>17</v>
       </c>
       <c r="D89" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
         <v>130</v>
       </c>
       <c r="E89" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1001.0)</f>
+        <v>1001</v>
       </c>
       <c r="F89" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
-        <v>70</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),590.0)</f>
+        <v>590</v>
       </c>
       <c r="G89" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),123.0)</f>
-        <v>123</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>54</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
+        <v>53</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I89" s="11"/>
+      <c r="J89" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K89" s="5" t="str">
+        <f t="shared" ref="K89:O89" si="53">ROUNDUP((C89/$R6),4)*100&amp;"%"</f>
+        <v>0.95%</v>
+      </c>
+      <c r="L89" s="5" t="str">
+        <f t="shared" si="53"/>
+        <v>7.26%</v>
+      </c>
+      <c r="M89" s="5" t="str">
+        <f t="shared" si="53"/>
+        <v>55.9%</v>
+      </c>
+      <c r="N89" s="5" t="str">
+        <f t="shared" si="53"/>
+        <v>32.95%</v>
+      </c>
+      <c r="O89" s="5" t="str">
+        <f t="shared" si="53"/>
+        <v>2.96%</v>
       </c>
     </row>
     <row r="90">
@@ -3008,27 +4116,51 @@
         <v>3.0</v>
       </c>
       <c r="C90" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K90, ""      "")"),1287.0)</f>
-        <v>1287</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H90, ""      "")"),13.0)</f>
+        <v>13</v>
       </c>
       <c r="D90" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1001.0)</f>
-        <v>1001</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="E90" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1540.0)</f>
         <v>1540</v>
       </c>
       <c r="F90" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1818.0)</f>
-        <v>1818</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2479.0)</f>
+        <v>2479</v>
       </c>
       <c r="G90" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3537.0)</f>
-        <v>3537</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>55</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I90" s="11"/>
+      <c r="J90" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="K90" s="5" t="str">
+        <f t="shared" ref="K90:O90" si="54">ROUNDUP((C90/$R7),4)*100&amp;"%"</f>
+        <v>0.29%</v>
+      </c>
+      <c r="L90" s="5" t="str">
+        <f t="shared" si="54"/>
+        <v>2.57%</v>
+      </c>
+      <c r="M90" s="5" t="str">
+        <f t="shared" si="54"/>
+        <v>34.3%</v>
+      </c>
+      <c r="N90" s="5" t="str">
+        <f t="shared" si="54"/>
+        <v>55.22%</v>
+      </c>
+      <c r="O90" s="5" t="str">
+        <f t="shared" si="54"/>
+        <v>7.64%</v>
       </c>
     </row>
     <row r="91">
@@ -3037,27 +4169,51 @@
         <v>4.0</v>
       </c>
       <c r="C91" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K91, ""      "")"),382.0)</f>
-        <v>382</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H91, ""      "")"),9.0)</f>
+        <v>9</v>
       </c>
       <c r="D91" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),590.0)</f>
-        <v>590</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
+        <v>70</v>
       </c>
       <c r="E91" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2479.0)</f>
-        <v>2479</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1818.0)</f>
+        <v>1818</v>
       </c>
       <c r="F91" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6276.0)</f>
         <v>6276</v>
       </c>
       <c r="G91" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13338.0)</f>
-        <v>13338</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>56</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1188.0)</f>
+        <v>1188</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I91" s="11"/>
+      <c r="J91" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K91" s="5" t="str">
+        <f t="shared" ref="K91:O91" si="55">ROUNDUP((C91/$R8),4)*100&amp;"%"</f>
+        <v>0.1%</v>
+      </c>
+      <c r="L91" s="5" t="str">
+        <f t="shared" si="55"/>
+        <v>0.75%</v>
+      </c>
+      <c r="M91" s="5" t="str">
+        <f t="shared" si="55"/>
+        <v>19.43%</v>
+      </c>
+      <c r="N91" s="5" t="str">
+        <f t="shared" si="55"/>
+        <v>67.05%</v>
+      </c>
+      <c r="O91" s="5" t="str">
+        <f t="shared" si="55"/>
+        <v>12.7%</v>
       </c>
     </row>
     <row r="92">
@@ -3066,27 +4222,51 @@
         <v>5.0</v>
       </c>
       <c r="C92" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(K92, ""      "")"),49.0)</f>
-        <v>49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H92, ""      "")"),14.0)</f>
+        <v>14</v>
       </c>
       <c r="D92" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
-        <v>53</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),123.0)</f>
+        <v>123</v>
       </c>
       <c r="E92" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3537.0)</f>
+        <v>3537</v>
       </c>
       <c r="F92" s="9">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1188.0)</f>
-        <v>1188</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13338.0)</f>
+        <v>13338</v>
       </c>
       <c r="G92" s="9">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3511.0)</f>
         <v>3511</v>
       </c>
-      <c r="K92" s="4" t="s">
-        <v>57</v>
+      <c r="H92" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I92" s="11"/>
+      <c r="J92" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K92" s="5" t="str">
+        <f t="shared" ref="K92:O92" si="56">ROUNDUP((C92/$R9),4)*100&amp;"%"</f>
+        <v>0.07%</v>
+      </c>
+      <c r="L92" s="5" t="str">
+        <f t="shared" si="56"/>
+        <v>0.6%</v>
+      </c>
+      <c r="M92" s="5" t="str">
+        <f t="shared" si="56"/>
+        <v>17.24%</v>
+      </c>
+      <c r="N92" s="5" t="str">
+        <f t="shared" si="56"/>
+        <v>65%</v>
+      </c>
+      <c r="O92" s="5" t="str">
+        <f t="shared" si="56"/>
+        <v>17.11%</v>
       </c>
     </row>
     <row r="93">
@@ -3097,10 +4277,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96">
@@ -3156,32 +4336,32 @@
     </row>
     <row r="117">
       <c r="E117" s="4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118">
       <c r="F118" s="4">
         <v>1.0</v>
       </c>
-      <c r="G118" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H118" s="11">
+      <c r="G118" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H118" s="14">
         <v>86.0</v>
       </c>
-      <c r="I118" s="12">
+      <c r="I118" s="15">
         <v>0.0055</v>
       </c>
-      <c r="J118" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K118" s="13">
+      <c r="J118" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K118" s="16">
         <v>556.0</v>
       </c>
-      <c r="L118" s="14">
+      <c r="L118" s="17">
         <v>0.0354</v>
       </c>
     </row>
@@ -3189,48 +4369,48 @@
       <c r="F119" s="4">
         <v>2.0</v>
       </c>
-      <c r="G119" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H119" s="11">
+      <c r="G119" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H119" s="14">
         <v>1407.0</v>
       </c>
-      <c r="I119" s="12">
+      <c r="I119" s="15">
         <v>0.0895</v>
       </c>
-      <c r="J119" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K119" s="13">
+      <c r="J119" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K119" s="16">
         <v>937.0</v>
       </c>
-      <c r="L119" s="14">
+      <c r="L119" s="17">
         <v>0.0596</v>
       </c>
     </row>
     <row r="120">
-      <c r="E120" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F120" s="15">
+      <c r="E120" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F120" s="18">
         <v>3.0</v>
       </c>
-      <c r="G120" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H120" s="11">
+      <c r="G120" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H120" s="14">
         <v>1487.0</v>
       </c>
-      <c r="I120" s="12">
+      <c r="I120" s="15">
         <v>0.095</v>
       </c>
-      <c r="J120" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K120" s="13">
+      <c r="J120" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K120" s="16">
         <v>1487.0</v>
       </c>
-      <c r="L120" s="14">
+      <c r="L120" s="17">
         <v>0.095</v>
       </c>
     </row>
@@ -3238,267 +4418,267 @@
       <c r="F121" s="4">
         <v>4.0</v>
       </c>
-      <c r="G121" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H121" s="11">
+      <c r="G121" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" s="14">
         <v>10294.0</v>
       </c>
-      <c r="I121" s="12">
+      <c r="I121" s="15">
         <v>0.6548</v>
       </c>
-      <c r="J121" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K121" s="13">
+      <c r="J121" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K121" s="16">
         <v>3309.0</v>
       </c>
-      <c r="L121" s="14">
+      <c r="L121" s="17">
         <v>0.2105</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F122" s="4">
         <v>5.0</v>
       </c>
-      <c r="G122" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H122" s="11">
+      <c r="G122" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H122" s="14">
         <v>2446.0</v>
       </c>
-      <c r="I122" s="12">
+      <c r="I122" s="15">
         <v>0.1556</v>
       </c>
-      <c r="J122" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K122" s="13">
+      <c r="J122" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K122" s="16">
         <v>9431.0</v>
       </c>
-      <c r="L122" s="14">
+      <c r="L122" s="17">
         <v>0.6</v>
       </c>
     </row>
     <row r="123">
-      <c r="G123" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H123" s="16">
+      <c r="G123" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H123" s="19">
         <v>795.0</v>
       </c>
-      <c r="I123" s="17">
+      <c r="I123" s="20">
         <v>0.0506</v>
       </c>
-      <c r="J123" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="K123" s="18">
+      <c r="J123" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K123" s="21">
         <v>398.0</v>
       </c>
-      <c r="L123" s="19">
+      <c r="L123" s="22">
         <v>0.0253</v>
       </c>
     </row>
     <row r="124">
-      <c r="G124" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H124" s="16">
+      <c r="G124" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H124" s="19">
         <v>698.0</v>
       </c>
-      <c r="I124" s="17">
+      <c r="I124" s="20">
         <v>0.0444</v>
       </c>
-      <c r="J124" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K124" s="18">
+      <c r="J124" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K124" s="21">
         <v>1095.0</v>
       </c>
-      <c r="L124" s="19">
+      <c r="L124" s="22">
         <v>0.0697</v>
       </c>
     </row>
     <row r="125">
-      <c r="G125" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H125" s="16">
+      <c r="G125" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H125" s="19">
         <v>1487.0</v>
       </c>
-      <c r="I125" s="17">
+      <c r="I125" s="20">
         <v>0.095</v>
       </c>
-      <c r="J125" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K125" s="18">
+      <c r="J125" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K125" s="21">
         <v>1487.0</v>
       </c>
-      <c r="L125" s="19">
+      <c r="L125" s="22">
         <v>0.095</v>
       </c>
     </row>
     <row r="126">
-      <c r="G126" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H126" s="16">
+      <c r="G126" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H126" s="19">
         <v>2076.0</v>
       </c>
-      <c r="I126" s="17">
+      <c r="I126" s="20">
         <v>0.1321</v>
       </c>
-      <c r="J126" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K126" s="18">
+      <c r="J126" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K126" s="21">
         <v>4607.0</v>
       </c>
-      <c r="L126" s="19">
+      <c r="L126" s="22">
         <v>0.2931</v>
       </c>
     </row>
     <row r="127">
-      <c r="G127" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H127" s="16">
+      <c r="G127" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H127" s="19">
         <v>10664.0</v>
       </c>
-      <c r="I127" s="17">
+      <c r="I127" s="20">
         <v>0.6771</v>
       </c>
-      <c r="J127" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="K127" s="18">
+      <c r="J127" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K127" s="21">
         <v>8133.0</v>
       </c>
-      <c r="L127" s="19">
+      <c r="L127" s="22">
         <v>0.5174</v>
       </c>
     </row>
     <row r="128">
-      <c r="G128" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H128" s="20">
+      <c r="G128" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H128" s="23">
         <v>63.0</v>
       </c>
-      <c r="I128" s="21">
+      <c r="I128" s="24">
         <v>0.004</v>
       </c>
       <c r="J128" s="4"/>
     </row>
     <row r="129">
-      <c r="G129" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H129" s="20">
+      <c r="G129" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H129" s="23">
         <v>493.0</v>
       </c>
-      <c r="I129" s="21">
+      <c r="I129" s="24">
         <v>0.0314</v>
       </c>
     </row>
     <row r="130">
       <c r="F130" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G130" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H130" s="20">
+        <v>83</v>
+      </c>
+      <c r="G130" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H130" s="23">
         <v>5733.0</v>
       </c>
-      <c r="I130" s="21">
+      <c r="I130" s="24">
         <v>0.3619</v>
       </c>
     </row>
     <row r="131">
       <c r="F131" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G131" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="H131" s="20">
+      <c r="G131" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H131" s="23">
         <v>7779.0</v>
       </c>
-      <c r="I131" s="21">
+      <c r="I131" s="24">
         <v>0.4786</v>
       </c>
     </row>
     <row r="132">
       <c r="F132" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G132" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="H132" s="20">
+      <c r="G132" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H132" s="23">
         <v>1652.0</v>
       </c>
-      <c r="I132" s="21">
+      <c r="I132" s="24">
         <v>0.1003</v>
       </c>
     </row>
     <row r="136">
       <c r="F136" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="137">
       <c r="F137" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138">
       <c r="F138" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H138" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I138" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="139">
       <c r="F139" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/group10.Code/analysis/Data Analysis Walmart.xlsx
+++ b/group10.Code/analysis/Data Analysis Walmart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>Total</t>
   </si>
@@ -61,142 +61,139 @@
     <t>Rating vs Sentiment Matrix</t>
   </si>
   <si>
-    <t>🠗 Sentiment</t>
+    <t>🠗 Score</t>
+  </si>
+  <si>
+    <t>🠖 Sentiment</t>
+  </si>
+  <si>
+    <t>83  659  2578  587  89</t>
+  </si>
+  <si>
+    <t>26  237  1563  744  68</t>
+  </si>
+  <si>
+    <t>26  198  2214  2867  415</t>
+  </si>
+  <si>
+    <t>17  136  2881  8326  1752</t>
+  </si>
+  <si>
+    <t>23  225  6023  23258  7567</t>
+  </si>
+  <si>
+    <t>4  27  84  15  4</t>
+  </si>
+  <si>
+    <t>0  14  38  10  2</t>
+  </si>
+  <si>
+    <t>1  5  51  38  9</t>
+  </si>
+  <si>
+    <t>2  6  93  246  121</t>
+  </si>
+  <si>
+    <t>1  10  258  1329  889</t>
+  </si>
+  <si>
+    <t>1  14  60  10  3</t>
+  </si>
+  <si>
+    <t>0  4  15  9  0</t>
+  </si>
+  <si>
+    <t>0  3  25  14  1</t>
+  </si>
+  <si>
+    <t>1  1  37  85  25</t>
+  </si>
+  <si>
+    <t>0  4  122  459  195</t>
+  </si>
+  <si>
+    <t>0  10  30  5  0</t>
+  </si>
+  <si>
+    <t>0  5  16  5  0</t>
+  </si>
+  <si>
+    <t>1  2  15  12  3</t>
+  </si>
+  <si>
+    <t>0  2  34  113  15</t>
+  </si>
+  <si>
+    <t>0  5  157  820  176</t>
+  </si>
+  <si>
+    <t>4  10  25  9  2</t>
+  </si>
+  <si>
+    <t>0  2  9  6  1</t>
+  </si>
+  <si>
+    <t>1  5  20  28  6</t>
+  </si>
+  <si>
+    <t>1  8  49  123  62</t>
+  </si>
+  <si>
+    <t>0  13  225  1073  731</t>
+  </si>
+  <si>
+    <t>47  255  872  123  24</t>
+  </si>
+  <si>
+    <t>9  56  357  86  10</t>
+  </si>
+  <si>
+    <t>8  48  400  196  33</t>
+  </si>
+  <si>
+    <t>4  46  702  1114  252</t>
+  </si>
+  <si>
+    <t>5  58  1415  4663  1494</t>
+  </si>
+  <si>
+    <t>2  45  220  43  7</t>
+  </si>
+  <si>
+    <t>0  26  127  38  2</t>
+  </si>
+  <si>
+    <t>2  20  163  100  20</t>
+  </si>
+  <si>
+    <t>0  3  148  369  89</t>
+  </si>
+  <si>
+    <t>3  12  309  1576  571</t>
+  </si>
+  <si>
+    <t>25  298  1287  382  49</t>
+  </si>
+  <si>
+    <t>17  130  1001  590  53</t>
+  </si>
+  <si>
+    <t>13  115  1540  2479  343</t>
+  </si>
+  <si>
+    <t>9  70  1818  6276  1188</t>
+  </si>
+  <si>
+    <t>14  123  3537  13338  3511</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walmart Data Analysis Graphs will be located in another excel sheet.</t>
   </si>
   <si>
     <t>Sentiment</t>
-  </si>
-  <si>
-    <t>🠖 Score</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>83  659  2578  587  89</t>
-  </si>
-  <si>
-    <t>26  237  1563  744  68</t>
-  </si>
-  <si>
-    <t>26  198  2214  2867  415</t>
-  </si>
-  <si>
-    <t>17  136  2881  8326  1752</t>
-  </si>
-  <si>
-    <t>23  225  6023  23258  7567</t>
-  </si>
-  <si>
-    <t>4  27  84  15  4</t>
-  </si>
-  <si>
-    <t>0  14  38  10  2</t>
-  </si>
-  <si>
-    <t>1  5  51  38  9</t>
-  </si>
-  <si>
-    <t>2  6  93  246  121</t>
-  </si>
-  <si>
-    <t>1  10  258  1329  889</t>
-  </si>
-  <si>
-    <t>1  14  60  10  3</t>
-  </si>
-  <si>
-    <t>0  4  15  9  0</t>
-  </si>
-  <si>
-    <t>0  3  25  14  1</t>
-  </si>
-  <si>
-    <t>1  1  37  85  25</t>
-  </si>
-  <si>
-    <t>0  4  122  459  195</t>
-  </si>
-  <si>
-    <t>0  10  30  5  0</t>
-  </si>
-  <si>
-    <t>0  5  16  5  0</t>
-  </si>
-  <si>
-    <t>1  2  15  12  3</t>
-  </si>
-  <si>
-    <t>0  2  34  113  15</t>
-  </si>
-  <si>
-    <t>0  5  157  820  176</t>
-  </si>
-  <si>
-    <t>4  10  25  9  2</t>
-  </si>
-  <si>
-    <t>0  2  9  6  1</t>
-  </si>
-  <si>
-    <t>1  5  20  28  6</t>
-  </si>
-  <si>
-    <t>1  8  49  123  62</t>
-  </si>
-  <si>
-    <t>0  13  225  1073  731</t>
-  </si>
-  <si>
-    <t>47  255  872  123  24</t>
-  </si>
-  <si>
-    <t>9  56  357  86  10</t>
-  </si>
-  <si>
-    <t>8  48  400  196  33</t>
-  </si>
-  <si>
-    <t>4  46  702  1114  252</t>
-  </si>
-  <si>
-    <t>5  58  1415  4663  1494</t>
-  </si>
-  <si>
-    <t>2  45  220  43  7</t>
-  </si>
-  <si>
-    <t>0  26  127  38  2</t>
-  </si>
-  <si>
-    <t>2  20  163  100  20</t>
-  </si>
-  <si>
-    <t>0  3  148  369  89</t>
-  </si>
-  <si>
-    <t>3  12  309  1576  571</t>
-  </si>
-  <si>
-    <t>25  298  1287  382  49</t>
-  </si>
-  <si>
-    <t>17  130  1001  590  53</t>
-  </si>
-  <si>
-    <t>13  115  1540  2479  343</t>
-  </si>
-  <si>
-    <t>9  70  1818  6276  1188</t>
-  </si>
-  <si>
-    <t>14  123  3537  13338  3511</t>
-  </si>
-  <si>
-    <t>Graphs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Walmart Data Analysis Graphs will be located in another excel sheet.</t>
   </si>
   <si>
     <t>Estimated Score</t>
@@ -334,15 +331,15 @@
     </font>
     <font>
       <b/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FFAEAEAE"/>
       <name val="Arial"/>
     </font>
     <font>
       <color rgb="FFCCCCCC"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
     </font>
   </fonts>
   <fills count="9">
@@ -427,15 +424,15 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1751,13 +1748,11 @@
       <c r="C30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="K30" s="9"/>
     </row>
     <row r="31">
       <c r="B31" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
         <v>1.0</v>
@@ -1774,9 +1769,7 @@
       <c r="G31" s="2">
         <v>5.0</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J31" s="9"/>
       <c r="K31" s="2">
         <v>1.0</v>
       </c>
@@ -1801,26 +1794,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H32, ""      "")"),83.0)</f>
         <v>83</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),659.0)</f>
         <v>659</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2578.0)</f>
         <v>2578</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),587.0)</f>
         <v>587</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
         <v>89</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="11"/>
+      <c r="H32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="12"/>
       <c r="J32" s="2">
         <v>1.0</v>
       </c>
@@ -1846,7 +1839,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="2">
         <v>2.0</v>
       </c>
@@ -1854,26 +1847,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H33, ""      "")"),26.0)</f>
         <v>26</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
         <v>237</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1563.0)</f>
         <v>1563</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),744.0)</f>
         <v>744</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
         <v>68</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="11"/>
+      <c r="H33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="12"/>
       <c r="J33" s="2">
         <v>2.0</v>
       </c>
@@ -1907,26 +1900,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H34, ""      "")"),26.0)</f>
         <v>26</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
         <v>198</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2214.0)</f>
         <v>2214</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2867.0)</f>
         <v>2867</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
         <v>415</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="11"/>
+      <c r="H34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="12"/>
       <c r="J34" s="2">
         <v>3.0</v>
       </c>
@@ -1960,26 +1953,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H35, ""      "")"),17.0)</f>
         <v>17</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),136.0)</f>
         <v>136</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2881.0)</f>
         <v>2881</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8326.0)</f>
         <v>8326</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1752.0)</f>
         <v>1752</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="11"/>
+      <c r="H35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="12"/>
       <c r="J35" s="2">
         <v>4.0</v>
       </c>
@@ -2013,26 +2006,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H36, ""      "")"),23.0)</f>
         <v>23</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
         <v>225</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6023.0)</f>
         <v>6023</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23258.0)</f>
         <v>23258</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7567.0)</f>
         <v>7567</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="11"/>
+      <c r="H36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="12"/>
       <c r="J36" s="2">
         <v>5.0</v>
       </c>
@@ -2067,13 +2060,11 @@
       <c r="C38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="K38" s="9"/>
     </row>
     <row r="39">
       <c r="B39" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2">
         <v>1.0</v>
@@ -2090,9 +2081,7 @@
       <c r="G39" s="2">
         <v>5.0</v>
       </c>
-      <c r="J39" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="J39" s="9"/>
       <c r="K39" s="2">
         <v>1.0</v>
       </c>
@@ -2117,26 +2106,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H40, ""      "")"),4.0)</f>
         <v>4</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
         <v>27</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
         <v>84</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
         <v>15</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="11"/>
+      <c r="H40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="12"/>
       <c r="J40" s="2">
         <v>1.0</v>
       </c>
@@ -2162,7 +2151,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="2">
         <v>2.0</v>
       </c>
@@ -2170,26 +2159,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H41, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
         <v>14</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
         <v>38</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
         <v>10</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="11"/>
+      <c r="H41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="12"/>
       <c r="J41" s="2">
         <v>2.0</v>
       </c>
@@ -2223,26 +2212,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H42, ""      "")"),1.0)</f>
         <v>1</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
         <v>51</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
         <v>38</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
         <v>9</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" s="11"/>
+      <c r="H42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="12"/>
       <c r="J42" s="2">
         <v>3.0</v>
       </c>
@@ -2276,26 +2265,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H43, ""      "")"),2.0)</f>
         <v>2</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
         <v>6</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
         <v>93</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),246.0)</f>
         <v>246</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
         <v>121</v>
       </c>
-      <c r="H43" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="11"/>
+      <c r="H43" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="12"/>
       <c r="J43" s="2">
         <v>4.0</v>
       </c>
@@ -2329,26 +2318,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H44, ""      "")"),1.0)</f>
         <v>1</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
         <v>10</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
         <v>258</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1329.0)</f>
         <v>1329</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),889.0)</f>
         <v>889</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" s="11"/>
+      <c r="H44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="12"/>
       <c r="J44" s="2">
         <v>5.0</v>
       </c>
@@ -2383,13 +2372,11 @@
       <c r="C46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="K46" s="9"/>
     </row>
     <row r="47">
       <c r="B47" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" s="2">
         <v>1.0</v>
@@ -2406,9 +2393,7 @@
       <c r="G47" s="2">
         <v>5.0</v>
       </c>
-      <c r="J47" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="J47" s="9"/>
       <c r="K47" s="2">
         <v>1.0</v>
       </c>
@@ -2433,26 +2418,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H48, ""      "")"),1.0)</f>
         <v>1</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
         <v>14</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
         <v>60</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
         <v>10</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I48" s="11"/>
+      <c r="H48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="12"/>
       <c r="J48" s="2">
         <v>1.0</v>
       </c>
@@ -2478,7 +2463,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="12"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="2">
         <v>2.0</v>
       </c>
@@ -2486,26 +2471,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H49, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
         <v>15</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
         <v>9</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I49" s="11"/>
+      <c r="H49" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="12"/>
       <c r="J49" s="2">
         <v>2.0</v>
       </c>
@@ -2539,26 +2524,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H50, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
         <v>25</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
         <v>14</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="11"/>
+      <c r="H50" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="12"/>
       <c r="J50" s="2">
         <v>3.0</v>
       </c>
@@ -2592,26 +2577,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H51, ""      "")"),1.0)</f>
         <v>1</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
         <v>37</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
         <v>85</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
         <v>25</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I51" s="11"/>
+      <c r="H51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="12"/>
       <c r="J51" s="2">
         <v>4.0</v>
       </c>
@@ -2645,26 +2630,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H52, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
         <v>122</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
         <v>459</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),195.0)</f>
         <v>195</v>
       </c>
-      <c r="H52" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52" s="11"/>
+      <c r="H52" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="12"/>
       <c r="J52" s="2">
         <v>5.0</v>
       </c>
@@ -2699,13 +2684,11 @@
       <c r="C54" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="K54" s="9"/>
     </row>
     <row r="55">
       <c r="B55" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C55" s="2">
         <v>1.0</v>
@@ -2722,9 +2705,7 @@
       <c r="G55" s="2">
         <v>5.0</v>
       </c>
-      <c r="J55" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="J55" s="9"/>
       <c r="K55" s="2">
         <v>1.0</v>
       </c>
@@ -2749,26 +2730,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H56, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
         <v>10</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
         <v>30</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I56" s="11"/>
+      <c r="H56" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="12"/>
       <c r="J56" s="2">
         <v>1.0</v>
       </c>
@@ -2794,7 +2775,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="12"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="2">
         <v>2.0</v>
       </c>
@@ -2802,26 +2783,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H57, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
         <v>16</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" s="11"/>
+      <c r="H57" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="12"/>
       <c r="J57" s="2">
         <v>2.0</v>
       </c>
@@ -2855,26 +2836,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H58, ""      "")"),1.0)</f>
         <v>1</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
         <v>15</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
         <v>12</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I58" s="11"/>
+      <c r="H58" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="12"/>
       <c r="J58" s="2">
         <v>3.0</v>
       </c>
@@ -2908,26 +2889,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H59, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
         <v>34</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
         <v>113</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
         <v>15</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I59" s="11"/>
+      <c r="H59" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="12"/>
       <c r="J59" s="2">
         <v>4.0</v>
       </c>
@@ -2961,26 +2942,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H60, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
         <v>157</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),820.0)</f>
         <v>820</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
         <v>176</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I60" s="11"/>
+      <c r="H60" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60" s="12"/>
       <c r="J60" s="2">
         <v>5.0</v>
       </c>
@@ -3015,13 +2996,11 @@
       <c r="C62" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="K62" s="9"/>
     </row>
     <row r="63">
       <c r="B63" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C63" s="2">
         <v>1.0</v>
@@ -3038,9 +3017,7 @@
       <c r="G63" s="2">
         <v>5.0</v>
       </c>
-      <c r="J63" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="J63" s="9"/>
       <c r="K63" s="2">
         <v>1.0</v>
       </c>
@@ -3065,26 +3042,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H64, ""      "")"),4.0)</f>
         <v>4</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
         <v>10</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
         <v>25</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
         <v>9</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H64" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I64" s="11"/>
+      <c r="H64" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="12"/>
       <c r="J64" s="2">
         <v>1.0</v>
       </c>
@@ -3110,7 +3087,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="12"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="2">
         <v>2.0</v>
       </c>
@@ -3118,26 +3095,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H65, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
         <v>9</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
         <v>6</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="H65" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I65" s="11"/>
+      <c r="H65" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" s="12"/>
       <c r="J65" s="2">
         <v>2.0</v>
       </c>
@@ -3171,26 +3148,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H66, ""      "")"),1.0)</f>
         <v>1</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
         <v>5</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
         <v>20</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
         <v>28</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
         <v>6</v>
       </c>
-      <c r="H66" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I66" s="11"/>
+      <c r="H66" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" s="12"/>
       <c r="J66" s="2">
         <v>3.0</v>
       </c>
@@ -3224,26 +3201,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H67, ""      "")"),1.0)</f>
         <v>1</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
         <v>8</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
         <v>49</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),123.0)</f>
         <v>123</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
         <v>62</v>
       </c>
-      <c r="H67" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I67" s="11"/>
+      <c r="H67" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="12"/>
       <c r="J67" s="2">
         <v>4.0</v>
       </c>
@@ -3277,26 +3254,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H68, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
         <v>13</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
         <v>225</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1073.0)</f>
         <v>1073</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),731.0)</f>
         <v>731</v>
       </c>
-      <c r="H68" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I68" s="11"/>
+      <c r="H68" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68" s="12"/>
       <c r="J68" s="2">
         <v>5.0</v>
       </c>
@@ -3331,13 +3308,11 @@
       <c r="C70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="K70" s="9"/>
     </row>
     <row r="71">
       <c r="B71" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" s="2">
         <v>1.0</v>
@@ -3354,9 +3329,7 @@
       <c r="G71" s="2">
         <v>5.0</v>
       </c>
-      <c r="J71" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="J71" s="9"/>
       <c r="K71" s="2">
         <v>1.0</v>
       </c>
@@ -3381,26 +3354,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H72, ""      "")"),47.0)</f>
         <v>47</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
         <v>255</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),872.0)</f>
         <v>872</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),123.0)</f>
         <v>123</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
         <v>24</v>
       </c>
-      <c r="H72" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I72" s="11"/>
+      <c r="H72" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" s="12"/>
       <c r="J72" s="2">
         <v>1.0</v>
       </c>
@@ -3426,7 +3399,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="12"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="2">
         <v>2.0</v>
       </c>
@@ -3434,26 +3407,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H73, ""      "")"),9.0)</f>
         <v>9</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
         <v>56</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357.0)</f>
         <v>357</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),86.0)</f>
         <v>86</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
         <v>10</v>
       </c>
-      <c r="H73" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I73" s="11"/>
+      <c r="H73" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" s="12"/>
       <c r="J73" s="2">
         <v>2.0</v>
       </c>
@@ -3487,26 +3460,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H74, ""      "")"),8.0)</f>
         <v>8</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
         <v>48</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
         <v>400</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
         <v>196</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
         <v>33</v>
       </c>
-      <c r="H74" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I74" s="11"/>
+      <c r="H74" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" s="12"/>
       <c r="J74" s="2">
         <v>3.0</v>
       </c>
@@ -3540,26 +3513,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H75, ""      "")"),4.0)</f>
         <v>4</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
         <v>46</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),702.0)</f>
         <v>702</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1114.0)</f>
         <v>1114</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.0)</f>
         <v>252</v>
       </c>
-      <c r="H75" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I75" s="11"/>
+      <c r="H75" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" s="12"/>
       <c r="J75" s="2">
         <v>4.0</v>
       </c>
@@ -3593,26 +3566,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H76, ""      "")"),5.0)</f>
         <v>5</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
         <v>58</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1415.0)</f>
         <v>1415</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4663.0)</f>
         <v>4663</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1494.0)</f>
         <v>1494</v>
       </c>
-      <c r="H76" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I76" s="11"/>
+      <c r="H76" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" s="12"/>
       <c r="J76" s="2">
         <v>5.0</v>
       </c>
@@ -3647,13 +3620,11 @@
       <c r="C78" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="K78" s="9"/>
     </row>
     <row r="79">
       <c r="B79" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79" s="2">
         <v>1.0</v>
@@ -3670,9 +3641,7 @@
       <c r="G79" s="2">
         <v>5.0</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J79" s="9"/>
       <c r="K79" s="2">
         <v>1.0</v>
       </c>
@@ -3697,26 +3666,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H80, ""      "")"),2.0)</f>
         <v>2</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
         <v>45</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),220.0)</f>
         <v>220</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
         <v>43</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
         <v>7</v>
       </c>
-      <c r="H80" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I80" s="11"/>
+      <c r="H80" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" s="12"/>
       <c r="J80" s="2">
         <v>1.0</v>
       </c>
@@ -3742,7 +3711,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="12"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="2">
         <v>2.0</v>
       </c>
@@ -3750,26 +3719,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H81, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
         <v>26</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
         <v>127</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
         <v>38</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="H81" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I81" s="11"/>
+      <c r="H81" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" s="12"/>
       <c r="J81" s="2">
         <v>2.0</v>
       </c>
@@ -3803,26 +3772,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H82, ""      "")"),2.0)</f>
         <v>2</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
         <v>20</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
         <v>163</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
         <v>100</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
         <v>20</v>
       </c>
-      <c r="H82" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I82" s="11"/>
+      <c r="H82" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I82" s="12"/>
       <c r="J82" s="2">
         <v>3.0</v>
       </c>
@@ -3856,26 +3825,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H83, ""      "")"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
         <v>148</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
         <v>369</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
         <v>89</v>
       </c>
-      <c r="H83" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I83" s="11"/>
+      <c r="H83" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I83" s="12"/>
       <c r="J83" s="2">
         <v>4.0</v>
       </c>
@@ -3909,26 +3878,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H84, ""      "")"),3.0)</f>
         <v>3</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
         <v>12</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
         <v>309</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1576.0)</f>
         <v>1576</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),571.0)</f>
         <v>571</v>
       </c>
-      <c r="H84" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I84" s="11"/>
+      <c r="H84" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I84" s="12"/>
       <c r="J84" s="2">
         <v>5.0</v>
       </c>
@@ -3963,13 +3932,11 @@
       <c r="C86" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K86" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="K86" s="9"/>
     </row>
     <row r="87">
       <c r="B87" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C87" s="2">
         <v>1.0</v>
@@ -3986,9 +3953,7 @@
       <c r="G87" s="2">
         <v>5.0</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J87" s="9"/>
       <c r="K87" s="2">
         <v>1.0</v>
       </c>
@@ -4013,26 +3978,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H88, ""      "")"),25.0)</f>
         <v>25</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.0)</f>
         <v>298</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1287.0)</f>
         <v>1287</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),382.0)</f>
         <v>382</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
         <v>49</v>
       </c>
-      <c r="H88" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I88" s="11"/>
+      <c r="H88" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I88" s="12"/>
       <c r="J88" s="2">
         <v>1.0</v>
       </c>
@@ -4058,7 +4023,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="12"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="2">
         <v>2.0</v>
       </c>
@@ -4066,26 +4031,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H89, ""      "")"),17.0)</f>
         <v>17</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
         <v>130</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1001.0)</f>
         <v>1001</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),590.0)</f>
         <v>590</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
         <v>53</v>
       </c>
-      <c r="H89" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I89" s="11"/>
+      <c r="H89" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I89" s="12"/>
       <c r="J89" s="2">
         <v>2.0</v>
       </c>
@@ -4119,26 +4084,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H90, ""      "")"),13.0)</f>
         <v>13</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
         <v>115</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1540.0)</f>
         <v>1540</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2479.0)</f>
         <v>2479</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
         <v>343</v>
       </c>
-      <c r="H90" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I90" s="11"/>
+      <c r="H90" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I90" s="12"/>
       <c r="J90" s="2">
         <v>3.0</v>
       </c>
@@ -4172,26 +4137,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H91, ""      "")"),9.0)</f>
         <v>9</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
         <v>70</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1818.0)</f>
         <v>1818</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6276.0)</f>
         <v>6276</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G91" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1188.0)</f>
         <v>1188</v>
       </c>
-      <c r="H91" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I91" s="11"/>
+      <c r="H91" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I91" s="12"/>
       <c r="J91" s="2">
         <v>4.0</v>
       </c>
@@ -4225,26 +4190,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(H92, ""      "")"),14.0)</f>
         <v>14</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),123.0)</f>
         <v>123</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3537.0)</f>
         <v>3537</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13338.0)</f>
         <v>13338</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3511.0)</f>
         <v>3511</v>
       </c>
-      <c r="H92" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I92" s="11"/>
+      <c r="H92" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I92" s="12"/>
       <c r="J92" s="2">
         <v>5.0</v>
       </c>
@@ -4277,10 +4242,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96">
@@ -4336,10 +4301,10 @@
     </row>
     <row r="117">
       <c r="E117" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118">
@@ -4347,7 +4312,7 @@
         <v>1.0</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H118" s="14">
         <v>86.0</v>
@@ -4356,7 +4321,7 @@
         <v>0.0055</v>
       </c>
       <c r="J118" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K118" s="16">
         <v>556.0</v>
@@ -4370,7 +4335,7 @@
         <v>2.0</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H119" s="14">
         <v>1407.0</v>
@@ -4379,7 +4344,7 @@
         <v>0.0895</v>
       </c>
       <c r="J119" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K119" s="16">
         <v>937.0</v>
@@ -4390,13 +4355,13 @@
     </row>
     <row r="120">
       <c r="E120" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F120" s="18">
         <v>3.0</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H120" s="14">
         <v>1487.0</v>
@@ -4405,7 +4370,7 @@
         <v>0.095</v>
       </c>
       <c r="J120" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K120" s="16">
         <v>1487.0</v>
@@ -4419,7 +4384,7 @@
         <v>4.0</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H121" s="14">
         <v>10294.0</v>
@@ -4428,7 +4393,7 @@
         <v>0.6548</v>
       </c>
       <c r="J121" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K121" s="16">
         <v>3309.0</v>
@@ -4439,13 +4404,13 @@
     </row>
     <row r="122">
       <c r="E122" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F122" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G122" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="F122" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>71</v>
       </c>
       <c r="H122" s="14">
         <v>2446.0</v>
@@ -4454,7 +4419,7 @@
         <v>0.1556</v>
       </c>
       <c r="J122" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K122" s="16">
         <v>9431.0</v>
@@ -4465,7 +4430,7 @@
     </row>
     <row r="123">
       <c r="G123" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H123" s="19">
         <v>795.0</v>
@@ -4474,7 +4439,7 @@
         <v>0.0506</v>
       </c>
       <c r="J123" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K123" s="21">
         <v>398.0</v>
@@ -4485,7 +4450,7 @@
     </row>
     <row r="124">
       <c r="G124" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H124" s="19">
         <v>698.0</v>
@@ -4494,7 +4459,7 @@
         <v>0.0444</v>
       </c>
       <c r="J124" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K124" s="21">
         <v>1095.0</v>
@@ -4505,7 +4470,7 @@
     </row>
     <row r="125">
       <c r="G125" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H125" s="19">
         <v>1487.0</v>
@@ -4514,7 +4479,7 @@
         <v>0.095</v>
       </c>
       <c r="J125" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K125" s="21">
         <v>1487.0</v>
@@ -4525,7 +4490,7 @@
     </row>
     <row r="126">
       <c r="G126" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H126" s="19">
         <v>2076.0</v>
@@ -4534,7 +4499,7 @@
         <v>0.1321</v>
       </c>
       <c r="J126" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K126" s="21">
         <v>4607.0</v>
@@ -4545,7 +4510,7 @@
     </row>
     <row r="127">
       <c r="G127" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H127" s="19">
         <v>10664.0</v>
@@ -4554,7 +4519,7 @@
         <v>0.6771</v>
       </c>
       <c r="J127" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K127" s="21">
         <v>8133.0</v>
@@ -4565,7 +4530,7 @@
     </row>
     <row r="128">
       <c r="G128" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H128" s="23">
         <v>63.0</v>
@@ -4577,7 +4542,7 @@
     </row>
     <row r="129">
       <c r="G129" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H129" s="23">
         <v>493.0</v>
@@ -4588,10 +4553,10 @@
     </row>
     <row r="130">
       <c r="F130" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G130" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H130" s="23">
         <v>5733.0</v>
@@ -4602,10 +4567,10 @@
     </row>
     <row r="131">
       <c r="F131" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G131" s="23" t="s">
         <v>84</v>
-      </c>
-      <c r="G131" s="23" t="s">
-        <v>85</v>
       </c>
       <c r="H131" s="23">
         <v>7779.0</v>
@@ -4616,10 +4581,10 @@
     </row>
     <row r="132">
       <c r="F132" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G132" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="G132" s="23" t="s">
-        <v>87</v>
       </c>
       <c r="H132" s="23">
         <v>1652.0</v>
@@ -4630,55 +4595,55 @@
     </row>
     <row r="136">
       <c r="F136" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G136" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G136" s="4" t="s">
+      <c r="H136" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H136" s="4" t="s">
+      <c r="I136" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="137">
       <c r="F137" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G137" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="H137" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138">
       <c r="F138" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G138" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="H138" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139">
       <c r="F139" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H139" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I139" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
